--- a/System Design and Documentation/Electronic Control Systems/mgpws_working_code/Raspberry_pi/MachineConfig/Config Layout.xlsx
+++ b/System Design and Documentation/Electronic Control Systems/mgpws_working_code/Raspberry_pi/MachineConfig/Config Layout.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/Electronic Control Systems/mgpws_working_code/Raspberry_pi/MachineConfig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{96A2ED2F-48C9-463C-BD51-F39F8D5AA606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EF5595-97ED-4F7A-8026-9E6B7DAFA98D}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{96A2ED2F-48C9-463C-BD51-F39F8D5AA606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56B418BE-C770-4352-BA43-335F878B1EFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{7B916630-BBC4-4F09-A1F5-9727D2838F7C}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="17040" windowHeight="10680" xr2:uid="{7B916630-BBC4-4F09-A1F5-9727D2838F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Software_Config" sheetId="4" r:id="rId1"/>
-    <sheet name="Sensor_Value_Return_Config" sheetId="1" r:id="rId2"/>
-    <sheet name="Wash_Instruct_File_Format" sheetId="6" r:id="rId3"/>
-    <sheet name="f" sheetId="2" r:id="rId4"/>
+    <sheet name="Sensor_Value_Return_Format" sheetId="1" r:id="rId2"/>
+    <sheet name="RPI_Phys_Conn_Config" sheetId="7" r:id="rId3"/>
+    <sheet name="Wash_Instruct_File_Format" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
   <si>
     <t>Sensor_Name</t>
   </si>
@@ -145,33 +145,9 @@
     <t>RE_Res</t>
   </si>
   <si>
-    <t>Wash Bottom Travel Limit Switch</t>
-  </si>
-  <si>
-    <t>Wash_Bottom_LmSw</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>Wash Top Travel Limit Switch</t>
-  </si>
-  <si>
-    <t>Wash_Top_LmSw</t>
-  </si>
-  <si>
-    <t>Reservoir Bottom Travel Limit Switch</t>
-  </si>
-  <si>
-    <t>Res_Bottom_LmSw</t>
-  </si>
-  <si>
-    <t>Reservoir Top Travel Limit Switch</t>
-  </si>
-  <si>
-    <t>Res_Top_LmSw</t>
-  </si>
-  <si>
     <t>Emergency Stop</t>
   </si>
   <si>
@@ -199,69 +175,6 @@
     <t>TET</t>
   </si>
   <si>
-    <t>State_Name;Sub_State_Name;Actuator-states;Control_Endpoints</t>
-  </si>
-  <si>
-    <t>Actuator psuedocode</t>
-  </si>
-  <si>
-    <t>Recieve Data</t>
-  </si>
-  <si>
-    <t>Var List:</t>
-  </si>
-  <si>
-    <t>Old Instructions</t>
-  </si>
-  <si>
-    <t>New Instructions</t>
-  </si>
-  <si>
-    <t>RX Mode</t>
-  </si>
-  <si>
-    <t>Wait until new instructions recieved by RPI</t>
-  </si>
-  <si>
-    <t>TX Mode</t>
-  </si>
-  <si>
-    <t>stop physcial actuators (Pistons and detergent movement</t>
-  </si>
-  <si>
-    <t>if valve position not equal to prior valve position</t>
-  </si>
-  <si>
-    <t>Set Actuator States</t>
-  </si>
-  <si>
-    <t>#Check if Endpoint (Safety or Phase) Met</t>
-  </si>
-  <si>
-    <t>Set Current instructions to Old Instructions</t>
-  </si>
-  <si>
-    <t>#Send Sensor/Phase Status Data to RPI</t>
-  </si>
-  <si>
-    <t>SerialPrint(Sensor Data)</t>
-  </si>
-  <si>
-    <t>;;[,,,,0,0,0];[[21,1,]]</t>
-  </si>
-  <si>
-    <t>;;[0,0,0,0,0,0,0];[[7,-1,vca]]</t>
-  </si>
-  <si>
-    <t>When Recieved, set new instructions to serial read from Pi</t>
-  </si>
-  <si>
-    <t>Close All Valves, Open Correct Valves</t>
-  </si>
-  <si>
-    <t>If met set actuators to stop, valves in same position</t>
-  </si>
-  <si>
     <t>Machine_Run_Hours</t>
   </si>
   <si>
@@ -427,9 +340,6 @@
     <t>State Specific Safety Trigger</t>
   </si>
   <si>
-    <t>NST</t>
-  </si>
-  <si>
     <t>Next State Trigger</t>
   </si>
   <si>
@@ -437,13 +347,106 @@
   </si>
   <si>
     <t>(([Sensor Index],[&lt;,&gt;],[Value]),…)</t>
+  </si>
+  <si>
+    <t>Reservoir Full Retract Limit Switch</t>
+  </si>
+  <si>
+    <t>Piston Travel Conflict Limit Switch</t>
+  </si>
+  <si>
+    <t>Wash Full Extend Limit Switch</t>
+  </si>
+  <si>
+    <t>LS_RFR</t>
+  </si>
+  <si>
+    <t>LS_PTC</t>
+  </si>
+  <si>
+    <t>LS_WFE</t>
+  </si>
+  <si>
+    <t>Digital Low, Depressed Switch Control Closes Circuit</t>
+  </si>
+  <si>
+    <t>Digital High, Depresses Switch Opens Circuit</t>
+  </si>
+  <si>
+    <t>Sensor State</t>
+  </si>
+  <si>
+    <t>T=0 at Start of Process</t>
+  </si>
+  <si>
+    <t>Serial Bus 1 TX</t>
+  </si>
+  <si>
+    <t>Reset Signal</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Connection Type</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>Stop Signal Send</t>
+  </si>
+  <si>
+    <t>High, Low Resets</t>
+  </si>
+  <si>
+    <t>Serial Bus 1 RX</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Ribbon Cable</t>
+  </si>
+  <si>
+    <t>Touch Screen</t>
+  </si>
+  <si>
+    <t>T=0 at Start of Sub-Phase</t>
+  </si>
+  <si>
+    <t>Derived - Absolute value of Net Force</t>
+  </si>
+  <si>
+    <t>Derived- Absolute value of Net Force</t>
+  </si>
+  <si>
+    <t>Derived- Absolute value of Delta Force</t>
+  </si>
+  <si>
+    <t>NST1</t>
+  </si>
+  <si>
+    <t>NST2</t>
+  </si>
+  <si>
+    <t>Default_Wash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +577,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1302,64 +1311,89 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
+    <col min="3" max="3" width="17.9296875" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1373,21 +1407,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" customWidth="1"/>
+    <col min="3" max="3" width="21.265625" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1401,8 +1436,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1419,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1436,7 +1474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1453,7 +1491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1470,7 +1508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1487,7 +1525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1504,7 +1542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1521,15 +1559,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -1537,16 +1575,19 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1554,16 +1595,19 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1571,16 +1615,19 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -1588,8 +1635,11 @@
       <c r="E12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1606,7 +1656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1623,7 +1673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1640,7 +1690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1657,140 +1707,144 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1800,410 +1854,397 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7193CD86-868B-4CD9-A111-573C30CAE943}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.46484375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88CAA7-FBFA-4AC8-B639-78041D5EAACD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
         <v>99</v>
       </c>
-      <c r="F9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
         <v>99</v>
       </c>
-      <c r="F10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B45117-596D-4DF1-A5AD-7D8FB80D2C5A}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
